--- a/Finflux Automation Excels/Client/5016-CreateEmiPack-DisbLoan-Edittranche-Verify-2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5016-CreateEmiPack-DisbLoan-Edittranche-Verify-2ndTranche.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +55,13 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -89,12 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,11 +456,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
